--- a/Team-Data/2010-11/4-7-2010-11.xlsx
+++ b/Team-Data/2010-11/4-7-2010-11.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
         <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J2" t="n">
         <v>78.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
         <v>6.2</v>
@@ -696,25 +763,25 @@
         <v>17.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O2" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P2" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.781</v>
+        <v>0.783</v>
       </c>
       <c r="R2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T2" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U2" t="n">
         <v>22.2</v>
@@ -723,7 +790,7 @@
         <v>13.5</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X2" t="n">
         <v>4.1</v>
@@ -735,25 +802,25 @@
         <v>18.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -765,10 +832,10 @@
         <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM2" t="n">
         <v>16</v>
@@ -777,7 +844,7 @@
         <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -795,7 +862,7 @@
         <v>27</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>7</v>
@@ -813,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
         <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>0.697</v>
+        <v>0.701</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,43 +933,43 @@
         <v>37</v>
       </c>
       <c r="J3" t="n">
-        <v>76</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.487</v>
+        <v>0.488</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M3" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O3" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P3" t="n">
         <v>23</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
         <v>7.8</v>
       </c>
       <c r="S3" t="n">
-        <v>30.9</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V3" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W3" t="n">
         <v>8.199999999999999</v>
@@ -914,7 +981,7 @@
         <v>4.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AA3" t="n">
         <v>20.1</v>
@@ -923,10 +990,10 @@
         <v>96.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>4</v>
@@ -941,7 +1008,7 @@
         <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>22</v>
@@ -965,7 +1032,7 @@
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,10 +1044,10 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
@@ -989,10 +1056,10 @@
         <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -1030,22 +1097,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" t="n">
         <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J4" t="n">
         <v>77.5</v>
@@ -1069,13 +1136,13 @@
         <v>24.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.757</v>
+        <v>0.759</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S4" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T4" t="n">
         <v>40.6</v>
@@ -1084,7 +1151,7 @@
         <v>20.9</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W4" t="n">
         <v>6.4</v>
@@ -1093,7 +1160,7 @@
         <v>5.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z4" t="n">
         <v>20.1</v>
@@ -1102,13 +1169,13 @@
         <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4</v>
+        <v>-4.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1144,25 +1211,25 @@
         <v>11</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>20</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU4" t="n">
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
         <v>28</v>
@@ -1174,16 +1241,16 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -1215,13 +1282,13 @@
         <v>77</v>
       </c>
       <c r="E5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.753</v>
+        <v>0.74</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,19 +1297,19 @@
         <v>37.1</v>
       </c>
       <c r="J5" t="n">
-        <v>80.40000000000001</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K5" t="n">
         <v>0.461</v>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.364</v>
+        <v>0.361</v>
       </c>
       <c r="O5" t="n">
         <v>18.2</v>
@@ -1251,16 +1318,16 @@
         <v>24.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U5" t="n">
         <v>22.2</v>
@@ -1269,34 +1336,34 @@
         <v>14.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA5" t="n">
         <v>20.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AE5" t="n">
         <v>2</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
         <v>2</v>
@@ -1305,16 +1372,16 @@
         <v>11</v>
       </c>
       <c r="AI5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>19</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>20</v>
-      </c>
       <c r="AK5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
@@ -1332,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
@@ -1341,22 +1408,22 @@
         <v>2</v>
       </c>
       <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>10</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>8</v>
       </c>
       <c r="BA5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>61</v>
       </c>
       <c r="G6" t="n">
-        <v>0.208</v>
+        <v>0.218</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
@@ -1421,19 +1488,19 @@
         <v>6.3</v>
       </c>
       <c r="M6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O6" t="n">
         <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R6" t="n">
         <v>10.5</v>
@@ -1442,10 +1509,10 @@
         <v>30</v>
       </c>
       <c r="T6" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V6" t="n">
         <v>14.3</v>
@@ -1469,19 +1536,19 @@
         <v>95.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF6" t="n">
         <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
@@ -1496,52 +1563,52 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
         <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ6" t="n">
         <v>25</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>23</v>
       </c>
       <c r="AT6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU6" t="n">
         <v>18</v>
       </c>
       <c r="AV6" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX6" t="n">
         <v>28</v>
       </c>
       <c r="AY6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BB6" t="n">
         <v>25</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="n">
         <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0.675</v>
+        <v>0.679</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
@@ -1594,10 +1661,10 @@
         <v>37.2</v>
       </c>
       <c r="J7" t="n">
-        <v>78.7</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L7" t="n">
         <v>7.9</v>
@@ -1606,19 +1673,19 @@
         <v>21.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O7" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
         <v>0.777</v>
       </c>
       <c r="R7" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S7" t="n">
         <v>31.8</v>
@@ -1627,13 +1694,13 @@
         <v>41.2</v>
       </c>
       <c r="U7" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V7" t="n">
         <v>13.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
         <v>4.3</v>
@@ -1645,16 +1712,16 @@
         <v>19.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>99.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
@@ -1669,7 +1736,7 @@
         <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1684,10 +1751,10 @@
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1699,22 +1766,22 @@
         <v>28</v>
       </c>
       <c r="AS7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV7" t="n">
         <v>12</v>
       </c>
       <c r="AW7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1723,10 +1790,10 @@
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC7" t="n">
         <v>9</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="n">
         <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>0.61</v>
+        <v>0.615</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
@@ -1788,25 +1855,25 @@
         <v>20.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="P8" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R8" t="n">
         <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T8" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U8" t="n">
         <v>22</v>
@@ -1818,25 +1885,25 @@
         <v>7.4</v>
       </c>
       <c r="X8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y8" t="n">
         <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB8" t="n">
         <v>107.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1854,7 +1921,7 @@
         <v>8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>4</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1884,19 +1951,19 @@
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW8" t="n">
         <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
         <v>28</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" t="n">
-        <v>0.351</v>
+        <v>0.346</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1967,19 +2034,19 @@
         <v>5.8</v>
       </c>
       <c r="M9" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O9" t="n">
         <v>16.4</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.737</v>
+        <v>0.734</v>
       </c>
       <c r="R9" t="n">
         <v>11.4</v>
@@ -1994,13 +2061,13 @@
         <v>20.9</v>
       </c>
       <c r="V9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W9" t="n">
         <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y9" t="n">
         <v>4.7</v>
@@ -2009,16 +2076,16 @@
         <v>19.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC9" t="n">
         <v>-4</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2045,13 +2112,13 @@
         <v>20</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>5</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="n">
         <v>28</v>
@@ -2072,10 +2139,10 @@
         <v>19</v>
       </c>
       <c r="AV9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2093,7 +2160,7 @@
         <v>23</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="n">
         <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.436</v>
+        <v>0.443</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J10" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.46</v>
+        <v>0.462</v>
       </c>
       <c r="L10" t="n">
         <v>8.300000000000001</v>
@@ -2155,13 +2222,13 @@
         <v>0.391</v>
       </c>
       <c r="O10" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R10" t="n">
         <v>11.6</v>
@@ -2170,16 +2237,16 @@
         <v>28.9</v>
       </c>
       <c r="T10" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U10" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X10" t="n">
         <v>4.9</v>
@@ -2188,16 +2255,16 @@
         <v>4.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
         <v>18.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.8</v>
+        <v>103.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>5</v>
@@ -2245,31 +2312,31 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
         <v>41</v>
       </c>
       <c r="F11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" t="n">
-        <v>0.532</v>
+        <v>0.519</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.6</v>
+        <v>38.7</v>
       </c>
       <c r="J11" t="n">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="K11" t="n">
         <v>0.455</v>
@@ -2331,22 +2398,22 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O11" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="P11" t="n">
-        <v>25.2</v>
+        <v>25.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="R11" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S11" t="n">
         <v>30.8</v>
@@ -2355,7 +2422,7 @@
         <v>42.4</v>
       </c>
       <c r="U11" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V11" t="n">
         <v>13.4</v>
@@ -2370,19 +2437,19 @@
         <v>5.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.7</v>
+        <v>106</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2397,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
@@ -2412,28 +2479,28 @@
         <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
         <v>5</v>
       </c>
       <c r="AP11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS11" t="n">
         <v>13</v>
       </c>
       <c r="AT11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV11" t="n">
         <v>6</v>
@@ -2442,7 +2509,7 @@
         <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY11" t="n">
         <v>22</v>
@@ -2451,7 +2518,7 @@
         <v>9</v>
       </c>
       <c r="BA11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E12" t="n">
         <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="n">
-        <v>0.462</v>
+        <v>0.456</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,10 +2571,10 @@
         <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L12" t="n">
         <v>7.2</v>
@@ -2525,22 +2592,22 @@
         <v>24.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R12" t="n">
         <v>11.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
         <v>19.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
@@ -2552,16 +2619,16 @@
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA12" t="n">
         <v>21.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2582,10 +2649,10 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>9</v>
@@ -2600,7 +2667,7 @@
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
@@ -2612,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>28</v>
@@ -2621,10 +2688,10 @@
         <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2633,13 +2700,13 @@
         <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" t="n">
         <v>31</v>
       </c>
       <c r="F13" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>0.397</v>
+        <v>0.392</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J13" t="n">
         <v>80.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
         <v>6.3</v>
@@ -2704,16 +2771,16 @@
         <v>19.1</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.709</v>
+        <v>0.708</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T13" t="n">
         <v>42.3</v>
@@ -2728,7 +2795,7 @@
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y13" t="n">
         <v>4.9</v>
@@ -2740,10 +2807,10 @@
         <v>22.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.90000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD13" t="n">
         <v>1</v>
@@ -2758,13 +2825,13 @@
         <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
         <v>19</v>
@@ -2776,7 +2843,7 @@
         <v>11</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
         <v>8</v>
@@ -2797,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
         <v>29</v>
@@ -2806,10 +2873,10 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
@@ -2818,7 +2885,7 @@
         <v>2</v>
       </c>
       <c r="BB13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>0.701</v>
+        <v>0.705</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,10 +2935,10 @@
         <v>38.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L14" t="n">
         <v>6.3</v>
@@ -2880,22 +2947,22 @@
         <v>18.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O14" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P14" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R14" t="n">
         <v>12.1</v>
       </c>
       <c r="S14" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
         <v>44</v>
@@ -2916,19 +2983,19 @@
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA14" t="n">
         <v>20.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC14" t="n">
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2955,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN14" t="n">
         <v>18</v>
@@ -2985,7 +3052,7 @@
         <v>5</v>
       </c>
       <c r="AW14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AX14" t="n">
         <v>10</v>
@@ -2994,7 +3061,7 @@
         <v>11</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA14" t="n">
         <v>18</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" t="n">
         <v>44</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.571</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3050,7 +3117,7 @@
         <v>39.1</v>
       </c>
       <c r="J15" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K15" t="n">
         <v>0.47</v>
@@ -3062,7 +3129,7 @@
         <v>11.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O15" t="n">
         <v>18</v>
@@ -3098,28 +3165,28 @@
         <v>6.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA15" t="n">
         <v>21.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>6</v>
@@ -3143,16 +3210,16 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP15" t="n">
         <v>18</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>16</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
       </c>
       <c r="AR15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS15" t="n">
         <v>24</v>
@@ -3173,13 +3240,13 @@
         <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ15" t="n">
         <v>17</v>
       </c>
       <c r="BA15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.697</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J16" t="n">
-        <v>77.2</v>
+        <v>77</v>
       </c>
       <c r="K16" t="n">
-        <v>0.481</v>
+        <v>0.48</v>
       </c>
       <c r="L16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M16" t="n">
         <v>18.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O16" t="n">
         <v>21.6</v>
@@ -3253,7 +3320,7 @@
         <v>28.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R16" t="n">
         <v>9.6</v>
@@ -3262,22 +3329,22 @@
         <v>32.8</v>
       </c>
       <c r="T16" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W16" t="n">
         <v>6.6</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Z16" t="n">
         <v>20.5</v>
@@ -3286,28 +3353,28 @@
         <v>21.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.4</v>
+        <v>102.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3319,10 +3386,10 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3331,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3340,16 +3407,16 @@
         <v>1</v>
       </c>
       <c r="AT16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV16" t="n">
         <v>11</v>
       </c>
       <c r="AW16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX16" t="n">
         <v>8</v>
@@ -3358,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="AZ16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="n">
         <v>32</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" t="n">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3423,7 +3490,7 @@
         <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N17" t="n">
         <v>0.344</v>
@@ -3432,49 +3499,49 @@
         <v>17.2</v>
       </c>
       <c r="P17" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R17" t="n">
         <v>10.6</v>
       </c>
       <c r="S17" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T17" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y17" t="n">
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB17" t="n">
         <v>91.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3501,16 +3568,16 @@
         <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
       </c>
       <c r="AP17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
         <v>22</v>
@@ -3519,7 +3586,7 @@
         <v>17</v>
       </c>
       <c r="AS17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
         <v>18</v>
@@ -3528,28 +3595,28 @@
         <v>30</v>
       </c>
       <c r="AV17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY17" t="n">
         <v>16</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>30</v>
       </c>
       <c r="BC17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G18" t="n">
-        <v>0.218</v>
+        <v>0.215</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3599,31 +3666,31 @@
         <v>85.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O18" t="n">
         <v>18.6</v>
       </c>
       <c r="P18" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q18" t="n">
         <v>0.767</v>
       </c>
       <c r="R18" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="S18" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T18" t="n">
         <v>44.5</v>
@@ -3632,10 +3699,10 @@
         <v>20.1</v>
       </c>
       <c r="V18" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="W18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
         <v>5.2</v>
@@ -3644,16 +3711,16 @@
         <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA18" t="n">
         <v>21</v>
       </c>
       <c r="AB18" t="n">
-        <v>100.5</v>
+        <v>100.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="AD18" t="n">
         <v>1</v>
@@ -3662,16 +3729,16 @@
         <v>29</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH18" t="n">
         <v>27</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>2</v>
@@ -3695,7 +3762,7 @@
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>1</v>
@@ -3713,19 +3780,19 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
         <v>11</v>
       </c>
       <c r="AY18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
         <v>54</v>
       </c>
       <c r="G19" t="n">
-        <v>0.299</v>
+        <v>0.308</v>
       </c>
       <c r="H19" t="n">
         <v>48.8</v>
       </c>
       <c r="I19" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
         <v>80.90000000000001</v>
@@ -3784,13 +3851,13 @@
         <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M19" t="n">
         <v>16.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O19" t="n">
         <v>17.6</v>
@@ -3805,13 +3872,13 @@
         <v>11.2</v>
       </c>
       <c r="S19" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T19" t="n">
         <v>41.2</v>
       </c>
       <c r="U19" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V19" t="n">
         <v>14.2</v>
@@ -3823,22 +3890,22 @@
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z19" t="n">
         <v>22.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.2</v>
+        <v>-6.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3868,31 +3935,31 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO19" t="n">
         <v>23</v>
       </c>
-      <c r="AO19" t="n">
-        <v>24</v>
-      </c>
       <c r="AP19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW19" t="n">
         <v>30</v>
@@ -3901,13 +3968,13 @@
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="n">
         <v>33</v>
       </c>
       <c r="G20" t="n">
-        <v>0.571</v>
+        <v>0.577</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J20" t="n">
         <v>78.2</v>
@@ -3969,37 +4036,37 @@
         <v>5.4</v>
       </c>
       <c r="M20" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O20" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q20" t="n">
         <v>0.769</v>
       </c>
       <c r="R20" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S20" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
         <v>40.3</v>
       </c>
       <c r="U20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V20" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>4.5</v>
@@ -4008,10 +4075,10 @@
         <v>4.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB20" t="n">
         <v>95.09999999999999</v>
@@ -4020,7 +4087,7 @@
         <v>1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>10</v>
@@ -4032,7 +4099,7 @@
         <v>10</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4050,22 +4117,22 @@
         <v>25</v>
       </c>
       <c r="AN20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
         <v>24</v>
@@ -4074,16 +4141,16 @@
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ20" t="n">
         <v>18</v>
@@ -4092,7 +4159,7 @@
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" t="n">
         <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.506</v>
+        <v>0.513</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4145,46 +4212,46 @@
         <v>83.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L21" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O21" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P21" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R21" t="n">
         <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W21" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y21" t="n">
         <v>4.4</v>
@@ -4196,25 +4263,25 @@
         <v>20.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.7</v>
+        <v>106.6</v>
       </c>
       <c r="AC21" t="n">
         <v>0.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG21" t="n">
         <v>15</v>
       </c>
-      <c r="AG21" t="n">
-        <v>16</v>
-      </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4238,7 +4305,7 @@
         <v>4</v>
       </c>
       <c r="AP21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
@@ -4250,7 +4317,7 @@
         <v>21</v>
       </c>
       <c r="AT21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU21" t="n">
         <v>15</v>
@@ -4259,7 +4326,7 @@
         <v>10</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
         <v>4</v>
@@ -4271,7 +4338,7 @@
         <v>21</v>
       </c>
       <c r="BA21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" t="n">
         <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>0.662</v>
+        <v>0.667</v>
       </c>
       <c r="H22" t="n">
         <v>48.8</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
         <v>80.7</v>
       </c>
       <c r="K22" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L22" t="n">
         <v>5.9</v>
@@ -4336,13 +4403,13 @@
         <v>17.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O22" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.823</v>
@@ -4357,7 +4424,7 @@
         <v>42.7</v>
       </c>
       <c r="U22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V22" t="n">
         <v>13.9</v>
@@ -4366,25 +4433,25 @@
         <v>7.9</v>
       </c>
       <c r="X22" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB22" t="n">
         <v>104.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>7</v>
@@ -4396,7 +4463,7 @@
         <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4405,13 +4472,13 @@
         <v>17</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
         <v>18</v>
       </c>
       <c r="AM22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN22" t="n">
         <v>19</v>
@@ -4429,13 +4496,13 @@
         <v>16</v>
       </c>
       <c r="AS22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT22" t="n">
         <v>7</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>14</v>
@@ -4447,10 +4514,10 @@
         <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E23" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" t="n">
         <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>0.628</v>
+        <v>0.633</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J23" t="n">
         <v>78.2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L23" t="n">
         <v>9.4</v>
@@ -4518,7 +4585,7 @@
         <v>25.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O23" t="n">
         <v>17.7</v>
@@ -4527,16 +4594,16 @@
         <v>25.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="R23" t="n">
         <v>10.3</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T23" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U23" t="n">
         <v>19.9</v>
@@ -4557,13 +4624,13 @@
         <v>20.1</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4587,7 +4654,7 @@
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>21</v>
@@ -4617,13 +4684,13 @@
         <v>6</v>
       </c>
       <c r="AU23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW23" t="n">
         <v>27</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>26</v>
       </c>
       <c r="AX23" t="n">
         <v>16</v>
@@ -4632,13 +4699,13 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" t="n">
         <v>40</v>
       </c>
       <c r="F24" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="n">
-        <v>0.513</v>
+        <v>0.506</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
@@ -4703,10 +4770,10 @@
         <v>0.357</v>
       </c>
       <c r="O24" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P24" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q24" t="n">
         <v>0.769</v>
@@ -4715,16 +4782,16 @@
         <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T24" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U24" t="n">
         <v>22.7</v>
       </c>
       <c r="V24" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4736,16 +4803,16 @@
         <v>4.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD24" t="n">
         <v>1</v>
@@ -4754,22 +4821,22 @@
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
         <v>4</v>
       </c>
       <c r="AI24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4778,22 +4845,22 @@
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS24" t="n">
         <v>10</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>9</v>
       </c>
       <c r="AT24" t="n">
         <v>11</v>
@@ -4802,16 +4869,16 @@
         <v>6</v>
       </c>
       <c r="AV24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX24" t="n">
         <v>25</v>
       </c>
       <c r="AY24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4820,7 +4887,7 @@
         <v>27</v>
       </c>
       <c r="BB24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -4852,13 +4919,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G25" t="n">
         <v>0.487</v>
@@ -4867,28 +4934,28 @@
         <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J25" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.47</v>
       </c>
       <c r="L25" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M25" t="n">
         <v>22.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O25" t="n">
         <v>17.9</v>
       </c>
       <c r="P25" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q25" t="n">
         <v>0.762</v>
@@ -4897,13 +4964,13 @@
         <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V25" t="n">
         <v>14.3</v>
@@ -4921,16 +4988,16 @@
         <v>20.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>105</v>
+        <v>104.9</v>
       </c>
       <c r="AC25" t="n">
         <v>-0.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>17</v>
@@ -4975,13 +5042,13 @@
         <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV25" t="n">
         <v>20</v>
@@ -4993,13 +5060,13 @@
         <v>21</v>
       </c>
       <c r="AY25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ25" t="n">
         <v>13</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="n">
         <v>33</v>
       </c>
       <c r="G26" t="n">
-        <v>0.571</v>
+        <v>0.577</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>80.2</v>
+        <v>80.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
         <v>6.2</v>
@@ -5064,34 +5131,34 @@
         <v>18.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O26" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.805</v>
+        <v>0.801</v>
       </c>
       <c r="R26" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X26" t="n">
         <v>4.4</v>
@@ -5100,19 +5167,19 @@
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
         <v>21.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
@@ -5130,28 +5197,28 @@
         <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
         <v>27</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
         <v>5</v>
@@ -5163,10 +5230,10 @@
         <v>28</v>
       </c>
       <c r="AU26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
         <v>4</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" t="n">
         <v>55</v>
       </c>
       <c r="G27" t="n">
-        <v>0.286</v>
+        <v>0.295</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5243,16 +5310,16 @@
         <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N27" t="n">
         <v>0.341</v>
       </c>
       <c r="O27" t="n">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>23.7</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="n">
         <v>0.731</v>
@@ -5267,10 +5334,10 @@
         <v>43.6</v>
       </c>
       <c r="U27" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V27" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="W27" t="n">
         <v>7.4</v>
@@ -5285,16 +5352,16 @@
         <v>22</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC27" t="n">
         <v>-5.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5306,10 +5373,10 @@
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ27" t="n">
         <v>4</v>
@@ -5327,10 +5394,10 @@
         <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AQ27" t="n">
         <v>28</v>
@@ -5342,10 +5409,10 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV27" t="n">
         <v>28</v>
@@ -5354,19 +5421,19 @@
         <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY27" t="n">
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -5398,22 +5465,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" t="n">
         <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J28" t="n">
         <v>80.8</v>
@@ -5431,10 +5498,10 @@
         <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P28" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q28" t="n">
         <v>0.766</v>
@@ -5446,16 +5513,16 @@
         <v>31.8</v>
       </c>
       <c r="T28" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U28" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V28" t="n">
         <v>13.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>4.6</v>
@@ -5467,13 +5534,13 @@
         <v>18.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.5</v>
+        <v>103.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5512,28 +5579,28 @@
         <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR28" t="n">
         <v>24</v>
       </c>
       <c r="AS28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU28" t="n">
         <v>7</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>9</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX28" t="n">
         <v>18</v>
@@ -5542,7 +5609,7 @@
         <v>14</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>19</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" t="n">
         <v>21</v>
       </c>
       <c r="F29" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G29" t="n">
-        <v>0.273</v>
+        <v>0.269</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J29" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="L29" t="n">
         <v>4.3</v>
@@ -5637,13 +5704,13 @@
         <v>14.5</v>
       </c>
       <c r="W29" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z29" t="n">
         <v>22.1</v>
@@ -5652,13 +5719,13 @@
         <v>19.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC29" t="n">
         <v>-6.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
@@ -5670,10 +5737,10 @@
         <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ29" t="n">
         <v>9</v>
@@ -5691,10 +5758,10 @@
         <v>30</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ29" t="n">
         <v>21</v>
@@ -5721,7 +5788,7 @@
         <v>26</v>
       </c>
       <c r="AY29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ29" t="n">
         <v>25</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E30" t="n">
         <v>37</v>
       </c>
       <c r="F30" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="n">
-        <v>0.481</v>
+        <v>0.474</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5783,40 +5850,40 @@
         <v>80.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L30" t="n">
         <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O30" t="n">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="P30" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.775</v>
+        <v>0.772</v>
       </c>
       <c r="R30" t="n">
         <v>11</v>
       </c>
       <c r="S30" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T30" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="U30" t="n">
         <v>23.4</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.7</v>
@@ -5828,22 +5895,22 @@
         <v>5.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="AB30" t="n">
         <v>99.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5855,10 +5922,10 @@
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
         <v>10</v>
@@ -5867,16 +5934,16 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
         <v>9</v>
@@ -5894,7 +5961,7 @@
         <v>5</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
         <v>7</v>
@@ -5909,10 +5976,10 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
@@ -5944,55 +6011,55 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E31" t="n">
         <v>21</v>
       </c>
       <c r="F31" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G31" t="n">
-        <v>0.273</v>
+        <v>0.269</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J31" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K31" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L31" t="n">
         <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.334</v>
+        <v>0.332</v>
       </c>
       <c r="O31" t="n">
         <v>18.1</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="R31" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S31" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T31" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U31" t="n">
         <v>19.5</v>
@@ -6004,25 +6071,25 @@
         <v>7.9</v>
       </c>
       <c r="X31" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y31" t="n">
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA31" t="n">
         <v>20.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.6</v>
+        <v>-7.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
@@ -6037,13 +6104,13 @@
         <v>5</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AJ31" t="n">
         <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>27</v>
@@ -6067,10 +6134,10 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6088,7 +6155,7 @@
         <v>19</v>
       </c>
       <c r="AZ31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-7-2010-11</t>
+          <t>2011-04-07</t>
         </is>
       </c>
     </row>
